--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15525" yWindow="4440" windowWidth="5760" windowHeight="1080" tabRatio="600" firstSheet="3" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3205755000</v>
+        <v>542034080.9480869</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,91 +3681,91 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>139737000</v>
+        <v>63520927.93147575</v>
       </c>
       <c r="F2" t="n">
-        <v>6695000</v>
+        <v>6805554.769947206</v>
       </c>
       <c r="G2" t="n">
-        <v>2069954000</v>
+        <v>1179231536.064481</v>
       </c>
       <c r="H2" t="n">
-        <v>130583000</v>
+        <v>72702948.914887</v>
       </c>
       <c r="I2" t="n">
-        <v>1547587000</v>
+        <v>924819952.5592971</v>
       </c>
       <c r="J2" t="n">
-        <v>645922000</v>
+        <v>404667083.5739595</v>
       </c>
       <c r="K2" t="n">
         <v>67963000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>403644339.1502276</v>
+        <v>241695475.3087335</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>83984660.84977238</v>
+        <v>39421949.36341578</v>
       </c>
       <c r="N2" t="n">
-        <v>444880000</v>
+        <v>245202978.3234529</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>141643807.4182732</v>
+        <v>78313020.3421967</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>227109192.5817267</v>
+        <v>138121827.4900649</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>95593628.23529412</v>
+        <v>60163263.1254696</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>787608371.7647059</v>
+        <v>81664240.49406464</v>
       </c>
       <c r="S2" t="n">
-        <v>1179897000</v>
+        <v>717326256.7620312</v>
       </c>
       <c r="T2" t="n">
-        <v>6234684000</v>
+        <v>2279383943.526087</v>
       </c>
       <c r="U2" t="n">
-        <v>249496000</v>
+        <v>141585829.0893514</v>
       </c>
       <c r="V2" t="n">
-        <v>1353099000</v>
+        <v>893316871.9682038</v>
       </c>
       <c r="W2" t="n">
-        <v>355828000</v>
+        <v>216728079.59555</v>
       </c>
       <c r="X2" t="n">
-        <v>712225000</v>
+        <v>246596634.7808403</v>
       </c>
       <c r="Y2" t="n">
-        <v>650674000</v>
+        <v>547048827.4493796</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>606215121.0392133</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>104532320.9906519</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>34090557.97013476</v>
+        <v>266148772.7327911</v>
       </c>
       <c r="AC2" t="n">
-        <v>8487857000</v>
+        <v>4990287427.674742</v>
       </c>
       <c r="AD2" t="n">
-        <v>15518252000</v>
+        <v>4439926047.998323</v>
       </c>
       <c r="AE2" t="n">
         <v>4333156000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5637193000</v>
+        <v>3223044036.876666</v>
       </c>
       <c r="AG2" t="n">
-        <v>2205261000</v>
+        <v>2034365443.42734</v>
       </c>
       <c r="AH2" t="n">
         <v>673674000</v>
@@ -3777,25 +3777,25 @@
         <v>6366963000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1750307000</v>
+        <v>1142531647.492691</v>
       </c>
       <c r="AL2" t="n">
-        <v>26538707000</v>
+        <v>11047764468.05769</v>
       </c>
       <c r="AM2" t="n">
-        <v>26050287000</v>
+        <v>74442191000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1737284000</v>
+        <v>906098232.287804</v>
       </c>
       <c r="AO2" t="n">
-        <v>17600108000</v>
+        <v>11171914285.37612</v>
       </c>
       <c r="AP2" t="n">
-        <v>1142665000</v>
+        <v>671043167.4867262</v>
       </c>
       <c r="AQ2" t="n">
-        <v>247220000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15525" yWindow="4440" windowWidth="5760" windowHeight="1080" tabRatio="600" firstSheet="3" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>542034080.9480869</v>
+        <v>345245985.1568159</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,91 +3681,91 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>63520927.93147575</v>
+        <v>40459347.69160359</v>
       </c>
       <c r="F2" t="n">
-        <v>6805554.769947206</v>
+        <v>4334765.181147572</v>
       </c>
       <c r="G2" t="n">
-        <v>1179231536.064481</v>
+        <v>751105821.029655</v>
       </c>
       <c r="H2" t="n">
-        <v>72702948.914887</v>
+        <v>46307791.52857329</v>
       </c>
       <c r="I2" t="n">
-        <v>924819952.5592971</v>
+        <v>589059593.919878</v>
       </c>
       <c r="J2" t="n">
-        <v>404667083.5739595</v>
+        <v>257750740.8476182</v>
       </c>
       <c r="K2" t="n">
         <v>67963000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>241695475.3087335</v>
+        <v>153946763.5226067</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>39421949.36341578</v>
+        <v>25109619.89874971</v>
       </c>
       <c r="N2" t="n">
-        <v>245202978.3234529</v>
+        <v>156180850.5963184</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>78313020.3421967</v>
+        <v>49881099.37913102</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>138121827.4900649</v>
+        <v>87976029.69919957</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>60163263.1254696</v>
+        <v>38320699.33991999</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>81664240.49406464</v>
+        <v>52015642.83954459</v>
       </c>
       <c r="S2" t="n">
-        <v>717326256.7620312</v>
+        <v>456897488.3672999</v>
       </c>
       <c r="T2" t="n">
-        <v>2279383943.526087</v>
+        <v>1451842573.730454</v>
       </c>
       <c r="U2" t="n">
-        <v>141585829.0893514</v>
+        <v>90182408.7568386</v>
       </c>
       <c r="V2" t="n">
-        <v>893316871.9682038</v>
+        <v>568993859.1691729</v>
       </c>
       <c r="W2" t="n">
-        <v>216728079.59555</v>
+        <v>138043901.6311168</v>
       </c>
       <c r="X2" t="n">
-        <v>246596634.7808403</v>
+        <v>157068533.3334616</v>
       </c>
       <c r="Y2" t="n">
-        <v>547048827.4493796</v>
+        <v>348440103.676305</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>606215121.0392133</v>
+        <v>598728291.6067146</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>0</v>
+        <v>112440172.9016787</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>266148772.7327911</v>
+        <v>262861803.4772182</v>
       </c>
       <c r="AC2" t="n">
-        <v>4990287427.674742</v>
+        <v>3178539430.8965</v>
       </c>
       <c r="AD2" t="n">
-        <v>4439926047.998323</v>
+        <v>2827989413.107401</v>
       </c>
       <c r="AE2" t="n">
         <v>4333156000</v>
       </c>
       <c r="AF2" t="n">
-        <v>3223044036.876666</v>
+        <v>2052902304.166845</v>
       </c>
       <c r="AG2" t="n">
-        <v>2034365443.42734</v>
+        <v>1295779225.646741</v>
       </c>
       <c r="AH2" t="n">
         <v>673674000</v>
@@ -3777,22 +3777,22 @@
         <v>6366963000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1142531647.492691</v>
+        <v>727730004.5810825</v>
       </c>
       <c r="AL2" t="n">
-        <v>11047764468.05769</v>
+        <v>7036820121.870433</v>
       </c>
       <c r="AM2" t="n">
         <v>74442191000</v>
       </c>
       <c r="AN2" t="n">
-        <v>906098232.287804</v>
+        <v>1737284000</v>
       </c>
       <c r="AO2" t="n">
-        <v>11171914285.37612</v>
+        <v>17600108000</v>
       </c>
       <c r="AP2" t="n">
-        <v>671043167.4867262</v>
+        <v>427417698.6001986</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,6 +1016,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1188,19 +1193,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2034,11 +2039,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3442,10 +3447,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="24.81640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="24.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,7 +3677,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345245985.1568159</v>
+        <v>859084603.8635432</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,67 +3686,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40459347.69160359</v>
+        <v>100676051.7966082</v>
       </c>
       <c r="F2" t="n">
-        <v>4334765.181147572</v>
+        <v>10786309.43904004</v>
       </c>
       <c r="G2" t="n">
-        <v>751105821.029655</v>
+        <v>1868996235.903436</v>
       </c>
       <c r="H2" t="n">
-        <v>46307791.52857329</v>
+        <v>115228887.3773585</v>
       </c>
       <c r="I2" t="n">
-        <v>589059593.919878</v>
+        <v>1465772375.788299</v>
       </c>
       <c r="J2" t="n">
-        <v>257750740.8476182</v>
+        <v>641367901.7759877</v>
       </c>
       <c r="K2" t="n">
         <v>67963000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>153946763.5226067</v>
+        <v>383069753.2856803</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>25109619.89874971</v>
+        <v>62480923.14262114</v>
       </c>
       <c r="N2" t="n">
-        <v>156180850.5963184</v>
+        <v>388628890.5131401</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>49881099.37913102</v>
+        <v>124120442.6488399</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>87976029.69919957</v>
+        <v>218913052.9332444</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>38320699.33991999</v>
+        <v>95354397.23435456</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>52015642.83954459</v>
+        <v>129431882.9029126</v>
       </c>
       <c r="S2" t="n">
-        <v>456897488.3672999</v>
+        <v>1136909956.018704</v>
       </c>
       <c r="T2" t="n">
-        <v>1451842573.730454</v>
+        <v>3612657803.273026</v>
       </c>
       <c r="U2" t="n">
-        <v>90182408.7568386</v>
+        <v>224403243.5804831</v>
       </c>
       <c r="V2" t="n">
-        <v>568993859.1691729</v>
+        <v>1415842283.82297</v>
       </c>
       <c r="W2" t="n">
-        <v>138043901.6311168</v>
+        <v>343498246.6043157</v>
       </c>
       <c r="X2" t="n">
-        <v>157068533.3334616</v>
+        <v>390837734.6572617</v>
       </c>
       <c r="Y2" t="n">
-        <v>348440103.676305</v>
+        <v>867032612.4168131</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>598728291.6067146</v>
@@ -3753,19 +3758,19 @@
         <v>262861803.4772182</v>
       </c>
       <c r="AC2" t="n">
-        <v>3178539430.8965</v>
+        <v>7909242700.14632</v>
       </c>
       <c r="AD2" t="n">
-        <v>2827989413.107401</v>
+        <v>7036959933.32452</v>
       </c>
       <c r="AE2" t="n">
         <v>4333156000</v>
       </c>
       <c r="AF2" t="n">
-        <v>2052902304.166845</v>
+        <v>5108290432.239691</v>
       </c>
       <c r="AG2" t="n">
-        <v>1295779225.646741</v>
+        <v>3224321297.331564</v>
       </c>
       <c r="AH2" t="n">
         <v>673674000</v>
@@ -3777,13 +3782,13 @@
         <v>6366963000</v>
       </c>
       <c r="AK2" t="n">
-        <v>727730004.5810825</v>
+        <v>1810829581.178726</v>
       </c>
       <c r="AL2" t="n">
-        <v>7036820121.870433</v>
+        <v>17509903334.89392</v>
       </c>
       <c r="AM2" t="n">
-        <v>74442191000</v>
+        <v>26050287000</v>
       </c>
       <c r="AN2" t="n">
         <v>1737284000</v>
@@ -3792,7 +3797,7 @@
         <v>17600108000</v>
       </c>
       <c r="AP2" t="n">
-        <v>427417698.6001986</v>
+        <v>1063554625.028982</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
